--- a/Code_execution_sequence.xlsx
+++ b/Code_execution_sequence.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\research\groups\fortino\arindam\DrugCombination_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{728191C0-3AD2-4841-9A8B-9FC81C1DF1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CF54CA-E478-4CD6-B060-2C4B4D034B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-30" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-38520" yWindow="-30" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Code_execution_sequence" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">Sl. No. </t>
   </si>
@@ -161,12 +161,21 @@
   </si>
   <si>
     <t>Scripts/Network_visualization/RWR_probs_in_network.R</t>
+  </si>
+  <si>
+    <t>Scripts/Feature_generation/Calculate_proximity_EfficacySafety_on_drugCombs.R</t>
+  </si>
+  <si>
+    <t>Scripts/Feature_generation/Calculate_proximity_Pathways_for_drugCombs.R</t>
+  </si>
+  <si>
+    <t>Scripts/Feature_generation/Calculate_proximity_Miscellaneous_for_drugCombs.R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,10 +1009,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1333,140 +1344,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1495,37 +1402,106 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>4</v>
+      </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1533,6 +1509,9 @@
       <c r="E43">
         <v>0</v>
       </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
       <c r="G43">
         <v>1</v>
       </c>
@@ -1547,42 +1526,98 @@
       </c>
       <c r="K43">
         <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>9</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>9</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C52" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>8</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C55" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
         <v>46</v>
       </c>
-      <c r="D56">
+      <c r="D61">
         <v>0</v>
       </c>
     </row>

--- a/Code_execution_sequence.xlsx
+++ b/Code_execution_sequence.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\research\groups\fortino\arindam\DrugCombination_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CF54CA-E478-4CD6-B060-2C4B4D034B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7317175B-D771-44A3-8007-415B2F4F5DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-30" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Code_execution_sequence" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t xml:space="preserve">Sl. No. </t>
   </si>
@@ -163,13 +164,88 @@
     <t>Scripts/Network_visualization/RWR_probs_in_network.R</t>
   </si>
   <si>
-    <t>Scripts/Feature_generation/Calculate_proximity_EfficacySafety_on_drugCombs.R</t>
-  </si>
-  <si>
     <t>Scripts/Feature_generation/Calculate_proximity_Pathways_for_drugCombs.R</t>
   </si>
   <si>
     <t>Scripts/Feature_generation/Calculate_proximity_Miscellaneous_for_drugCombs.R</t>
+  </si>
+  <si>
+    <t>Scripts/Feature_generation/Calculate_proximity_EfficacySafety_for_drugCombs.R</t>
+  </si>
+  <si>
+    <t>CTD</t>
+  </si>
+  <si>
+    <t>PharmGKB</t>
+  </si>
+  <si>
+    <t>Enrichr</t>
+  </si>
+  <si>
+    <t>Intogen</t>
+  </si>
+  <si>
+    <t>OpenTargets</t>
+  </si>
+  <si>
+    <t>DisGeNet</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Phenotye</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>lit</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>Scripts/Target_enrichmentLib_overlap/OverlapPerc_target_enrichLib.R</t>
+  </si>
+  <si>
+    <t>Scripts/Target_enrichmentLib_overlap/OverlapPerc_target_extendedEnrichLib.R</t>
+  </si>
+  <si>
+    <t>Scripts/Target_enrichmentLib_overlap/OverlapPerc_rankedGene_enrichLib.R</t>
+  </si>
+  <si>
+    <t>Scripts/Target_enrichmentLib_overlap/OverlapPerc_rankedGene_extendedEnrichLib.R</t>
+  </si>
+  <si>
+    <t>Scripts/Target_enrichmentLib_overlap/Plot_OverlapPerc.R</t>
+  </si>
+  <si>
+    <t>Scripts/Target_enrichmentLib_overlap/OverlapScore_target_enrichLib.R</t>
+  </si>
+  <si>
+    <t>Scripts/Target_enrichmentLib_overlap/OverlapScore_target_extendedEnrichLib.R</t>
+  </si>
+  <si>
+    <t>Scripts/Target_enrichmentLib_overlap/Plot_OverlapScore.R</t>
+  </si>
+  <si>
+    <t>Scripts/Target_enrichmentLib_overlap/OverlapScore_rankedGene_enrichLib.R</t>
+  </si>
+  <si>
+    <t>Scripts/Target_enrichmentLib_overlap/OverlapScore_rankedGene_extendedEnrichLib.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plots/plot_mean_proximity_byDrugCategory.R</t>
   </si>
 </sst>
 </file>
@@ -312,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,6 +566,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -653,8 +735,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1010,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,9 +1147,6 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
@@ -1086,9 +1166,6 @@
       <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -1100,9 +1177,6 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -1114,9 +1188,6 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
@@ -1145,9 +1216,6 @@
       </c>
       <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1159,160 +1227,130 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>63</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
       <c r="E22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="E23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
       <c r="E25">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
@@ -1324,16 +1362,13 @@
       <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
         <v>31</v>
@@ -1349,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -1357,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -1365,146 +1400,52 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>33</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>4</v>
-      </c>
-      <c r="C40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1530,95 +1471,313 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>5</v>
+      </c>
       <c r="C45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>6</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C66" t="s">
         <v>41</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>9</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C69" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>9</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C70" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73">
         <v>8</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C73" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>46</v>
       </c>
-      <c r="D61">
-        <v>0</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982A9293-A03E-4BD6-97C4-556E72D5B061}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Code_execution_sequence.xlsx
+++ b/Code_execution_sequence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\research\groups\fortino\arindam\DrugCombination_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7317175B-D771-44A3-8007-415B2F4F5DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116BDDB-5AB1-418D-B28A-4B48FBD0768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-30" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t xml:space="preserve">Sl. No. </t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>Scripts/Plots/plot_mean_proximity_byDrugCategory.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plots/plot_proximity_topFeature_scatter_byVar.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plot_publication/plot_combinedEfficacySafety_topSignifFeature.R</t>
   </si>
 </sst>
 </file>
@@ -388,7 +394,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +577,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,9 +753,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -783,7 +804,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1093,10 +1125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,37 +1138,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1144,8 +1176,11 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1155,16 +1190,22 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1174,8 +1215,11 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1185,8 +1229,11 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1214,16 +1261,25 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1233,6 +1289,9 @@
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
       <c r="E14">
         <v>1</v>
       </c>
@@ -1241,8 +1300,11 @@
       <c r="B15" t="s">
         <v>63</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1252,8 +1314,11 @@
       <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1263,8 +1328,11 @@
       <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1274,8 +1342,11 @@
       <c r="B18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1285,7 +1356,7 @@
       <c r="B20">
         <v>14</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E20">
@@ -1296,7 +1367,7 @@
       <c r="B21">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E21">
@@ -1307,7 +1378,7 @@
       <c r="B22">
         <v>14</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E22">
@@ -1318,7 +1389,7 @@
       <c r="B23">
         <v>14</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E23">
@@ -1329,7 +1400,7 @@
       <c r="B24">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E24">
@@ -1340,7 +1411,7 @@
       <c r="B25">
         <v>14</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E25">
@@ -1351,7 +1422,7 @@
       <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1383,7 +1454,7 @@
       <c r="B34">
         <v>11</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1391,7 +1462,7 @@
       <c r="B35">
         <v>12</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1399,23 +1470,15 @@
       <c r="B36">
         <v>13</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>15</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E42">
@@ -1444,7 +1507,7 @@
       <c r="B43">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E43">
@@ -1473,7 +1536,7 @@
       <c r="B44">
         <v>4</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E44">
@@ -1502,7 +1565,7 @@
       <c r="B45">
         <v>5</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E45">
@@ -1531,190 +1594,262 @@
       <c r="B48">
         <v>0</v>
       </c>
-      <c r="C48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49" t="s">
-        <v>65</v>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0</v>
       </c>
-      <c r="C50" t="s">
-        <v>66</v>
+      <c r="C50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0</v>
       </c>
-      <c r="C51" t="s">
-        <v>67</v>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>73</v>
+      <c r="E57">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>7</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>1</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>38</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
-        <v>39</v>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0</v>
       </c>
-      <c r="C64" t="s">
-        <v>40</v>
+      <c r="C64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>16</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>6</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C74" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69">
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>9</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C75" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>9</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C76" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>8</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C80" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Code_execution_sequence.xlsx
+++ b/Code_execution_sequence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\research\groups\fortino\arindam\DrugCombination_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A116BDDB-5AB1-418D-B28A-4B48FBD0768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F1C279-C532-4805-A1F8-604E5BA31E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-30" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
   <si>
     <t xml:space="preserve">Sl. No. </t>
   </si>
@@ -251,7 +251,34 @@
     <t>Scripts/Plots/plot_proximity_topFeature_scatter_byVar.R</t>
   </si>
   <si>
-    <t>Scripts/Plot_publication/plot_combinedEfficacySafety_topSignifFeature.R</t>
+    <t>Scripts/Plot_publication/plot_Proximity_combinedEfficacySafety_topSignifFeature_EA.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plot_publication/plot_NES_combinedEfficacySafety_topSignifFeature_EA.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plot_publication/plot_Proximity_combinedEfficacySafety_topSignifFeature_ADR.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plot_publication/plot_Proximity_combinedEfficacySafety_topSignifFeature_ADRxSL.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plot_publication/plot_NES_combinedEfficacySafety_topSignifFeature_ADR.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plot_publication/plot_NES_combinedEfficacySafety_topSignifFeature_ADRxSL.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plots/plot_Drug_participation_freq_EA.R</t>
+  </si>
+  <si>
+    <t>REMOVE</t>
+  </si>
+  <si>
+    <t>MODIFY</t>
+  </si>
+  <si>
+    <t>Scripts/Summary_tables/EnrichmentLib_similarity_Database.R</t>
   </si>
 </sst>
 </file>
@@ -394,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,12 +610,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,12 +774,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -829,9 +849,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -869,7 +889,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -975,7 +995,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1117,7 +1137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1125,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,16 +1439,19 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" t="s">
         <v>29</v>
       </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>30</v>
@@ -1438,77 +1461,56 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31">
         <v>10</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>11</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37">
         <v>13</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1534,10 +1536,10 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1563,52 +1565,70 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>5</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50">
+      <c r="E49">
         <v>1</v>
       </c>
     </row>
@@ -1617,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1628,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1639,20 +1659,20 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55">
+      <c r="E54">
         <v>1</v>
       </c>
     </row>
@@ -1661,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1672,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1683,18 +1703,21 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>68</v>
+      <c r="E59">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
@@ -1702,46 +1725,43 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>7</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
         <v>1</v>
       </c>
     </row>
@@ -1750,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1760,61 +1780,75 @@
       <c r="B66">
         <v>0</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>15</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>74</v>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73">
         <v>16</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>6</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
@@ -1822,27 +1856,60 @@
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78" s="4" t="s">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80">
+      <c r="C80" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86">
         <v>8</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C86" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Code_execution_sequence.xlsx
+++ b/Code_execution_sequence.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\research\groups\fortino\arindam\DrugCombination_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F1C279-C532-4805-A1F8-604E5BA31E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137CB6F3-4D70-4A64-BB88-0C5F2CD161D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-30" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Code_execution_sequence" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Publication_plots" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
   <si>
     <t xml:space="preserve">Sl. No. </t>
   </si>
@@ -158,9 +171,6 @@
     <t>Scripts/Plots/plot_Number_of_rankedGenes_FGSEA.R</t>
   </si>
   <si>
-    <t>Scripts/Model_train/ML_data_split.R</t>
-  </si>
-  <si>
     <t>Scripts/Network_visualization/RWR_probs_in_network.R</t>
   </si>
   <si>
@@ -173,45 +183,6 @@
     <t>Scripts/Feature_generation/Calculate_proximity_EfficacySafety_for_drugCombs.R</t>
   </si>
   <si>
-    <t>CTD</t>
-  </si>
-  <si>
-    <t>PharmGKB</t>
-  </si>
-  <si>
-    <t>Enrichr</t>
-  </si>
-  <si>
-    <t>Intogen</t>
-  </si>
-  <si>
-    <t>OpenTargets</t>
-  </si>
-  <si>
-    <t>DisGeNet</t>
-  </si>
-  <si>
-    <t>Disease</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Phenotye</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>lit</t>
-  </si>
-  <si>
-    <t>SM</t>
-  </si>
-  <si>
     <t>run</t>
   </si>
   <si>
@@ -275,10 +246,52 @@
     <t>REMOVE</t>
   </si>
   <si>
-    <t>MODIFY</t>
-  </si>
-  <si>
     <t>Scripts/Summary_tables/EnrichmentLib_similarity_Database.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plot_publication/plot_drugComb_category_distribution_ADRxSL.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plot_publication/plot_mean_NES_byDrugCategory_xCancer.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plot_publication/plot_mean_Proximity_byDrugCategory_xCancer.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Feature_selection_EfficacySafety.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_data_1.R</t>
+  </si>
+  <si>
+    <t>Scripts/Plot_publication/plot_ValidationData1_applicibility_domain.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/trainML_combinedEfficacySafety_NES.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_prediction_1.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_featureGeneration_1.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_data_2.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_featureGeneration_2.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_prediction_2.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_data_3.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_prediction_3.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_featureGeneration_3.R</t>
   </si>
 </sst>
 </file>
@@ -421,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +623,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,11 +811,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -824,7 +866,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1145,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,7 +1376,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
@@ -1318,7 +1390,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
@@ -1332,7 +1404,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>20</v>
@@ -1346,7 +1418,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>21</v>
@@ -1360,7 +1432,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>22</v>
@@ -1440,7 +1512,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
@@ -1450,19 +1522,22 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
       <c r="E29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>85</v>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -1475,7 +1550,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -1486,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
@@ -1494,7 +1569,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -1502,13 +1577,10 @@
         <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>2</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,7 +1607,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44">
+      <c r="B44" s="5">
         <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1564,7 +1636,7 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45">
+      <c r="B45" s="5">
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1593,7 +1665,7 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="B46" s="5">
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1622,7 +1694,7 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49">
+      <c r="B49" s="5">
         <v>0</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1637,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1648,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -1659,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -1670,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1681,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1692,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1703,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -1714,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -1725,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
@@ -1733,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
@@ -1777,7 +1849,7 @@
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66">
+      <c r="B66" s="5">
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -1803,30 +1875,30 @@
         <v>0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72">
+      <c r="B72" s="6">
         <v>15</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73">
+      <c r="B73" s="6">
         <v>16</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75">
+      <c r="B75" s="6">
         <v>6</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -1852,7 +1924,7 @@
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76">
+      <c r="B76" s="6">
         <v>9</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -1860,62 +1932,109 @@
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77">
+      <c r="B77" s="6">
         <v>9</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>17</v>
+      </c>
+      <c r="C89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>18</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="1" t="s">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>19</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>20</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>21</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C82" s="1" t="s">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C83" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C84" s="1" t="s">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <v>8</v>
-      </c>
-      <c r="C86" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
-        <v>46</v>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>19</v>
+      </c>
+      <c r="C100" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C1:C78 C81:C1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1923,66 +2042,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982A9293-A03E-4BD6-97C4-556E72D5B061}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="86.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:C16">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Code_execution_sequence.xlsx
+++ b/Code_execution_sequence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\research\groups\fortino\arindam\DrugCombination_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137CB6F3-4D70-4A64-BB88-0C5F2CD161D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23E2D57-1986-4BA3-A7E0-4108A5F38AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-30" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Code_execution_sequence" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t xml:space="preserve">Sl. No. </t>
   </si>
@@ -123,18 +123,12 @@
     <t>Scripts/Enrichment_analysis_libraries/Disease2Gene_SkinCancer_lib.R</t>
   </si>
   <si>
-    <t>Scripts/Enrichment_analysis_libraries/Extend_enrichment_libraries.R</t>
-  </si>
-  <si>
     <t>Scripts/Summary_tables/Feature_size_table.R</t>
   </si>
   <si>
     <t>Scripts/Summary_tables/Feature_similarity_table.R</t>
   </si>
   <si>
-    <t>Scripts/Network_visualization/Generate_enrichmentLib_networks.R</t>
-  </si>
-  <si>
     <t>Scripts/Feature_generation/Execute_RWR_on_drugCombs.R</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
     <t>Scripts/Plots/plot_Drug_participation_freq_EA.R</t>
   </si>
   <si>
-    <t>REMOVE</t>
-  </si>
-  <si>
     <t>Scripts/Summary_tables/EnrichmentLib_similarity_Database.R</t>
   </si>
   <si>
@@ -292,6 +283,15 @@
   </si>
   <si>
     <t>Scripts/Predictive_model/Validation_featureGeneration_3.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_data_4.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_featureGeneration_4.R</t>
+  </si>
+  <si>
+    <t>Scripts/Predictive_model/Validation_prediction_4.R</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,31 +622,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,15 +787,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1217,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,776 +1236,782 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>14</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>11</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="4">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4">
+        <v>13</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4">
+        <v>2</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" s="4">
+        <v>1</v>
+      </c>
+      <c r="K41" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <v>1</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1</v>
+      </c>
+      <c r="K42" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1</v>
+      </c>
+      <c r="K43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4">
+        <v>5</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>1</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="H44" s="4">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1</v>
+      </c>
+      <c r="K44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="4">
+        <v>7</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="H62" s="4">
+        <v>1</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4">
+        <v>1</v>
+      </c>
+      <c r="K62" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="4">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="4">
+        <v>0</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4">
+        <v>0</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="4">
+        <v>15</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="4">
+        <v>16</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="4">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="H73" s="4">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="4">
+        <v>1</v>
+      </c>
+      <c r="K73" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="4">
+        <v>9</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="4">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:11" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="4">
+        <v>17</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="4">
         <v>18</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C88" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="4">
         <v>19</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C89" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="4">
         <v>20</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C90" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="4">
         <v>21</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>11</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>12</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="5">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="5">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="5">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="5">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>7</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="5">
-        <v>0</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="6">
-        <v>15</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="6">
-        <v>16</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="6">
-        <v>6</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="6">
-        <v>9</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="6">
-        <v>9</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>17</v>
-      </c>
-      <c r="C89" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>18</v>
-      </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="4">
+        <v>19</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91">
+    <row r="94" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="4">
+        <v>20</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="4">
+        <v>21</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="4">
         <v>19</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92">
+      <c r="C98" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="4">
         <v>20</v>
       </c>
-      <c r="C92" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93">
+      <c r="C99" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="4">
         <v>21</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95">
+      <c r="C100" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="4">
         <v>19</v>
       </c>
-      <c r="C95" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96">
+      <c r="C103" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="4">
         <v>20</v>
       </c>
-      <c r="C96" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97">
+      <c r="C104" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="4">
         <v>21</v>
       </c>
-      <c r="C97" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>19</v>
-      </c>
-      <c r="C100" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <v>20</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="C105" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <v>21</v>
-      </c>
-      <c r="C102" t="s">
-        <v>84</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C78 C81:C1048576">
+  <conditionalFormatting sqref="C79:C1048576 C1:C76">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2093,47 +2071,47 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
@@ -2141,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21">
         <v>0</v>
